--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:J61"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,755 +1125,755 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A2)),0)</f>
-        <v>27</v>
-      </c>
-      <c r="B44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B2)),0)</f>
-        <v>55</v>
-      </c>
-      <c r="C44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C2)),0)</f>
-        <v>83</v>
-      </c>
-      <c r="D44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D2)),0)</f>
-        <v>110</v>
-      </c>
-      <c r="E44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E2)),0)</f>
-        <v>138</v>
-      </c>
-      <c r="F44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F2)),0)</f>
-        <v>166</v>
-      </c>
-      <c r="G44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G2)),0)</f>
-        <v>193</v>
-      </c>
-      <c r="H44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H2)),0)</f>
-        <v>221</v>
-      </c>
-      <c r="I44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I2)),0)</f>
-        <v>248</v>
-      </c>
-      <c r="J44">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J2)),0)</f>
-        <v>276</v>
+      <c r="A44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A2)),0)&amp;","</f>
+        <v>27,</v>
+      </c>
+      <c r="B44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B2)),0)&amp;","</f>
+        <v>55,</v>
+      </c>
+      <c r="C44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C2)),0)&amp;","</f>
+        <v>83,</v>
+      </c>
+      <c r="D44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D2)),0)&amp;","</f>
+        <v>110,</v>
+      </c>
+      <c r="E44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E2)),0)&amp;","</f>
+        <v>138,</v>
+      </c>
+      <c r="F44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F2)),0)&amp;","</f>
+        <v>166,</v>
+      </c>
+      <c r="G44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G2)),0)&amp;","</f>
+        <v>193,</v>
+      </c>
+      <c r="H44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H2)),0)&amp;","</f>
+        <v>221,</v>
+      </c>
+      <c r="I44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I2)),0)&amp;","</f>
+        <v>248,</v>
+      </c>
+      <c r="J44" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J2)),0)&amp;","</f>
+        <v>276,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A3)),0)</f>
-        <v>303</v>
-      </c>
-      <c r="B45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B3)),0)</f>
-        <v>330</v>
-      </c>
-      <c r="C45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C3)),0)</f>
-        <v>357</v>
-      </c>
-      <c r="D45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D3)),0)</f>
-        <v>384</v>
-      </c>
-      <c r="E45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E3)),0)</f>
-        <v>411</v>
-      </c>
-      <c r="F45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F3)),0)</f>
-        <v>438</v>
-      </c>
-      <c r="G45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G3)),0)</f>
-        <v>464</v>
-      </c>
-      <c r="H45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H3)),0)</f>
-        <v>491</v>
-      </c>
-      <c r="I45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I3)),0)</f>
-        <v>517</v>
-      </c>
-      <c r="J45">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J3)),0)</f>
-        <v>543</v>
+      <c r="A45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A3)),0)&amp;","</f>
+        <v>303,</v>
+      </c>
+      <c r="B45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B3)),0)&amp;","</f>
+        <v>330,</v>
+      </c>
+      <c r="C45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C3)),0)&amp;","</f>
+        <v>357,</v>
+      </c>
+      <c r="D45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D3)),0)&amp;","</f>
+        <v>384,</v>
+      </c>
+      <c r="E45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E3)),0)&amp;","</f>
+        <v>411,</v>
+      </c>
+      <c r="F45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F3)),0)&amp;","</f>
+        <v>438,</v>
+      </c>
+      <c r="G45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G3)),0)&amp;","</f>
+        <v>464,</v>
+      </c>
+      <c r="H45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H3)),0)&amp;","</f>
+        <v>491,</v>
+      </c>
+      <c r="I45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I3)),0)&amp;","</f>
+        <v>517,</v>
+      </c>
+      <c r="J45" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J3)),0)&amp;","</f>
+        <v>543,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A4)),0)</f>
-        <v>569</v>
-      </c>
-      <c r="B46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B4)),0)</f>
-        <v>595</v>
-      </c>
-      <c r="C46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C4)),0)</f>
-        <v>621</v>
-      </c>
-      <c r="D46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D4)),0)</f>
-        <v>646</v>
-      </c>
-      <c r="E46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E4)),0)</f>
-        <v>671</v>
-      </c>
-      <c r="F46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F4)),0)</f>
-        <v>697</v>
-      </c>
-      <c r="G46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G4)),0)</f>
-        <v>721</v>
-      </c>
-      <c r="H46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H4)),0)</f>
-        <v>746</v>
-      </c>
-      <c r="I46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I4)),0)</f>
-        <v>770</v>
-      </c>
-      <c r="J46">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J4)),0)</f>
-        <v>795</v>
+      <c r="A46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A4)),0)&amp;","</f>
+        <v>569,</v>
+      </c>
+      <c r="B46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B4)),0)&amp;","</f>
+        <v>595,</v>
+      </c>
+      <c r="C46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C4)),0)&amp;","</f>
+        <v>621,</v>
+      </c>
+      <c r="D46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D4)),0)&amp;","</f>
+        <v>646,</v>
+      </c>
+      <c r="E46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E4)),0)&amp;","</f>
+        <v>671,</v>
+      </c>
+      <c r="F46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F4)),0)&amp;","</f>
+        <v>697,</v>
+      </c>
+      <c r="G46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G4)),0)&amp;","</f>
+        <v>721,</v>
+      </c>
+      <c r="H46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H4)),0)&amp;","</f>
+        <v>746,</v>
+      </c>
+      <c r="I46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I4)),0)&amp;","</f>
+        <v>770,</v>
+      </c>
+      <c r="J46" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J4)),0)&amp;","</f>
+        <v>795,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A5)),0)</f>
-        <v>818</v>
-      </c>
-      <c r="B47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B5)),0)</f>
-        <v>842</v>
-      </c>
-      <c r="C47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C5)),0)</f>
-        <v>865</v>
-      </c>
-      <c r="D47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D5)),0)</f>
-        <v>889</v>
-      </c>
-      <c r="E47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E5)),0)</f>
-        <v>911</v>
-      </c>
-      <c r="F47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F5)),0)</f>
-        <v>934</v>
-      </c>
-      <c r="G47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G5)),0)</f>
-        <v>956</v>
-      </c>
-      <c r="H47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H5)),0)</f>
-        <v>978</v>
-      </c>
-      <c r="I47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I5)),0)</f>
-        <v>1000</v>
-      </c>
-      <c r="J47">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J5)),0)</f>
-        <v>1022</v>
+      <c r="A47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A5)),0)&amp;","</f>
+        <v>818,</v>
+      </c>
+      <c r="B47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B5)),0)&amp;","</f>
+        <v>842,</v>
+      </c>
+      <c r="C47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C5)),0)&amp;","</f>
+        <v>865,</v>
+      </c>
+      <c r="D47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D5)),0)&amp;","</f>
+        <v>889,</v>
+      </c>
+      <c r="E47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E5)),0)&amp;","</f>
+        <v>911,</v>
+      </c>
+      <c r="F47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F5)),0)&amp;","</f>
+        <v>934,</v>
+      </c>
+      <c r="G47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G5)),0)&amp;","</f>
+        <v>956,</v>
+      </c>
+      <c r="H47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H5)),0)&amp;","</f>
+        <v>978,</v>
+      </c>
+      <c r="I47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I5)),0)&amp;","</f>
+        <v>1000,</v>
+      </c>
+      <c r="J47" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J5)),0)&amp;","</f>
+        <v>1022,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A6)),0)</f>
-        <v>1043</v>
-      </c>
-      <c r="B48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B6)),0)</f>
-        <v>1063</v>
-      </c>
-      <c r="C48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C6)),0)</f>
-        <v>1084</v>
-      </c>
-      <c r="D48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D6)),0)</f>
-        <v>1104</v>
-      </c>
-      <c r="E48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E6)),0)</f>
-        <v>1124</v>
-      </c>
-      <c r="F48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F6)),0)</f>
-        <v>1143</v>
-      </c>
-      <c r="G48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G6)),0)</f>
-        <v>1162</v>
-      </c>
-      <c r="H48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H6)),0)</f>
-        <v>1181</v>
-      </c>
-      <c r="I48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I6)),0)</f>
-        <v>1199</v>
-      </c>
-      <c r="J48">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J6)),0)</f>
-        <v>1218</v>
+      <c r="A48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A6)),0)&amp;","</f>
+        <v>1043,</v>
+      </c>
+      <c r="B48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B6)),0)&amp;","</f>
+        <v>1063,</v>
+      </c>
+      <c r="C48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C6)),0)&amp;","</f>
+        <v>1084,</v>
+      </c>
+      <c r="D48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D6)),0)&amp;","</f>
+        <v>1104,</v>
+      </c>
+      <c r="E48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E6)),0)&amp;","</f>
+        <v>1124,</v>
+      </c>
+      <c r="F48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F6)),0)&amp;","</f>
+        <v>1143,</v>
+      </c>
+      <c r="G48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G6)),0)&amp;","</f>
+        <v>1162,</v>
+      </c>
+      <c r="H48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H6)),0)&amp;","</f>
+        <v>1181,</v>
+      </c>
+      <c r="I48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I6)),0)&amp;","</f>
+        <v>1199,</v>
+      </c>
+      <c r="J48" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J6)),0)&amp;","</f>
+        <v>1218,</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A7)),0)</f>
-        <v>1235</v>
-      </c>
-      <c r="B49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B7)),0)</f>
-        <v>1252</v>
-      </c>
-      <c r="C49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C7)),0)</f>
-        <v>1269</v>
-      </c>
-      <c r="D49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D7)),0)</f>
-        <v>1286</v>
-      </c>
-      <c r="E49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E7)),0)</f>
-        <v>1302</v>
-      </c>
-      <c r="F49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F7)),0)</f>
-        <v>1318</v>
-      </c>
-      <c r="G49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G7)),0)</f>
-        <v>1333</v>
-      </c>
-      <c r="H49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H7)),0)</f>
-        <v>1348</v>
-      </c>
-      <c r="I49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I7)),0)</f>
-        <v>1362</v>
-      </c>
-      <c r="J49">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J7)),0)</f>
-        <v>1376</v>
+      <c r="A49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A7)),0)&amp;","</f>
+        <v>1235,</v>
+      </c>
+      <c r="B49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B7)),0)&amp;","</f>
+        <v>1252,</v>
+      </c>
+      <c r="C49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C7)),0)&amp;","</f>
+        <v>1269,</v>
+      </c>
+      <c r="D49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D7)),0)&amp;","</f>
+        <v>1286,</v>
+      </c>
+      <c r="E49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E7)),0)&amp;","</f>
+        <v>1302,</v>
+      </c>
+      <c r="F49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F7)),0)&amp;","</f>
+        <v>1318,</v>
+      </c>
+      <c r="G49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G7)),0)&amp;","</f>
+        <v>1333,</v>
+      </c>
+      <c r="H49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H7)),0)&amp;","</f>
+        <v>1348,</v>
+      </c>
+      <c r="I49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I7)),0)&amp;","</f>
+        <v>1362,</v>
+      </c>
+      <c r="J49" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J7)),0)&amp;","</f>
+        <v>1376,</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A8)),0)</f>
-        <v>1390</v>
-      </c>
-      <c r="B50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B8)),0)</f>
-        <v>1403</v>
-      </c>
-      <c r="C50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C8)),0)</f>
-        <v>1416</v>
-      </c>
-      <c r="D50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D8)),0)</f>
-        <v>1429</v>
-      </c>
-      <c r="E50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E8)),0)</f>
-        <v>1441</v>
-      </c>
-      <c r="F50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F8)),0)</f>
-        <v>1452</v>
-      </c>
-      <c r="G50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G8)),0)</f>
-        <v>1463</v>
-      </c>
-      <c r="H50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H8)),0)</f>
-        <v>1474</v>
-      </c>
-      <c r="I50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I8)),0)</f>
-        <v>1484</v>
-      </c>
-      <c r="J50">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J8)),0)</f>
-        <v>1494</v>
+      <c r="A50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A8)),0)&amp;","</f>
+        <v>1390,</v>
+      </c>
+      <c r="B50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B8)),0)&amp;","</f>
+        <v>1403,</v>
+      </c>
+      <c r="C50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C8)),0)&amp;","</f>
+        <v>1416,</v>
+      </c>
+      <c r="D50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D8)),0)&amp;","</f>
+        <v>1429,</v>
+      </c>
+      <c r="E50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E8)),0)&amp;","</f>
+        <v>1441,</v>
+      </c>
+      <c r="F50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F8)),0)&amp;","</f>
+        <v>1452,</v>
+      </c>
+      <c r="G50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G8)),0)&amp;","</f>
+        <v>1463,</v>
+      </c>
+      <c r="H50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H8)),0)&amp;","</f>
+        <v>1474,</v>
+      </c>
+      <c r="I50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I8)),0)&amp;","</f>
+        <v>1484,</v>
+      </c>
+      <c r="J50" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J8)),0)&amp;","</f>
+        <v>1494,</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A9)),0)</f>
-        <v>1503</v>
-      </c>
-      <c r="B51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B9)),0)</f>
-        <v>1512</v>
-      </c>
-      <c r="C51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C9)),0)</f>
-        <v>1520</v>
-      </c>
-      <c r="D51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D9)),0)</f>
-        <v>1528</v>
-      </c>
-      <c r="E51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E9)),0)</f>
-        <v>1535</v>
-      </c>
-      <c r="F51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F9)),0)</f>
-        <v>1542</v>
-      </c>
-      <c r="G51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G9)),0)</f>
-        <v>1549</v>
-      </c>
-      <c r="H51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H9)),0)</f>
-        <v>1555</v>
-      </c>
-      <c r="I51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I9)),0)</f>
-        <v>1560</v>
-      </c>
-      <c r="J51">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J9)),0)</f>
-        <v>1565</v>
+      <c r="A51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A9)),0)&amp;","</f>
+        <v>1503,</v>
+      </c>
+      <c r="B51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B9)),0)&amp;","</f>
+        <v>1512,</v>
+      </c>
+      <c r="C51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C9)),0)&amp;","</f>
+        <v>1520,</v>
+      </c>
+      <c r="D51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D9)),0)&amp;","</f>
+        <v>1528,</v>
+      </c>
+      <c r="E51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E9)),0)&amp;","</f>
+        <v>1535,</v>
+      </c>
+      <c r="F51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F9)),0)&amp;","</f>
+        <v>1542,</v>
+      </c>
+      <c r="G51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G9)),0)&amp;","</f>
+        <v>1549,</v>
+      </c>
+      <c r="H51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H9)),0)&amp;","</f>
+        <v>1555,</v>
+      </c>
+      <c r="I51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I9)),0)&amp;","</f>
+        <v>1560,</v>
+      </c>
+      <c r="J51" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J9)),0)&amp;","</f>
+        <v>1565,</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A10)),0)</f>
-        <v>1570</v>
-      </c>
-      <c r="B52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B10)),0)</f>
-        <v>1574</v>
-      </c>
-      <c r="C52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C10)),0)</f>
-        <v>1578</v>
-      </c>
-      <c r="D52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D10)),0)</f>
-        <v>1581</v>
-      </c>
-      <c r="E52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E10)),0)</f>
-        <v>1583</v>
-      </c>
-      <c r="F52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F10)),0)</f>
-        <v>1586</v>
-      </c>
-      <c r="G52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G10)),0)</f>
-        <v>1587</v>
-      </c>
-      <c r="H52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H10)),0)</f>
-        <v>1589</v>
-      </c>
-      <c r="I52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I10)),0)</f>
-        <v>1589</v>
-      </c>
-      <c r="J52">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J10)),0)</f>
-        <v>1590</v>
+      <c r="A52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A10)),0)&amp;","</f>
+        <v>1570,</v>
+      </c>
+      <c r="B52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B10)),0)&amp;","</f>
+        <v>1574,</v>
+      </c>
+      <c r="C52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C10)),0)&amp;","</f>
+        <v>1578,</v>
+      </c>
+      <c r="D52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D10)),0)&amp;","</f>
+        <v>1581,</v>
+      </c>
+      <c r="E52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E10)),0)&amp;","</f>
+        <v>1583,</v>
+      </c>
+      <c r="F52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F10)),0)&amp;","</f>
+        <v>1586,</v>
+      </c>
+      <c r="G52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G10)),0)&amp;","</f>
+        <v>1587,</v>
+      </c>
+      <c r="H52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H10)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="I52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I10)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="J52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J10)),0)&amp;","</f>
+        <v>1590,</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A11)),0)</f>
-        <v>1589</v>
-      </c>
-      <c r="B53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B11)),0)</f>
-        <v>1589</v>
-      </c>
-      <c r="C53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C11)),0)</f>
-        <v>1587</v>
-      </c>
-      <c r="D53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D11)),0)</f>
-        <v>1586</v>
-      </c>
-      <c r="E53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E11)),0)</f>
-        <v>1583</v>
-      </c>
-      <c r="F53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F11)),0)</f>
-        <v>1581</v>
-      </c>
-      <c r="G53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G11)),0)</f>
-        <v>1578</v>
-      </c>
-      <c r="H53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H11)),0)</f>
-        <v>1574</v>
-      </c>
-      <c r="I53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I11)),0)</f>
-        <v>1570</v>
-      </c>
-      <c r="J53">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J11)),0)</f>
-        <v>1565</v>
+      <c r="A53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A11)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="B53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B11)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="C53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C11)),0)&amp;","</f>
+        <v>1587,</v>
+      </c>
+      <c r="D53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D11)),0)&amp;","</f>
+        <v>1586,</v>
+      </c>
+      <c r="E53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E11)),0)&amp;","</f>
+        <v>1583,</v>
+      </c>
+      <c r="F53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F11)),0)&amp;","</f>
+        <v>1581,</v>
+      </c>
+      <c r="G53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G11)),0)&amp;","</f>
+        <v>1578,</v>
+      </c>
+      <c r="H53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H11)),0)&amp;","</f>
+        <v>1574,</v>
+      </c>
+      <c r="I53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I11)),0)&amp;","</f>
+        <v>1570,</v>
+      </c>
+      <c r="J53" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J11)),0)&amp;","</f>
+        <v>1565,</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A12)),0)</f>
-        <v>1560</v>
-      </c>
-      <c r="B54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B12)),0)</f>
-        <v>1555</v>
-      </c>
-      <c r="C54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C12)),0)</f>
-        <v>1549</v>
-      </c>
-      <c r="D54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D12)),0)</f>
-        <v>1542</v>
-      </c>
-      <c r="E54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E12)),0)</f>
-        <v>1535</v>
-      </c>
-      <c r="F54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F12)),0)</f>
-        <v>1528</v>
-      </c>
-      <c r="G54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G12)),0)</f>
-        <v>1520</v>
-      </c>
-      <c r="H54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H12)),0)</f>
-        <v>1512</v>
-      </c>
-      <c r="I54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I12)),0)</f>
-        <v>1503</v>
-      </c>
-      <c r="J54">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J12)),0)</f>
-        <v>1494</v>
+      <c r="A54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A12)),0)&amp;","</f>
+        <v>1560,</v>
+      </c>
+      <c r="B54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B12)),0)&amp;","</f>
+        <v>1555,</v>
+      </c>
+      <c r="C54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C12)),0)&amp;","</f>
+        <v>1549,</v>
+      </c>
+      <c r="D54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D12)),0)&amp;","</f>
+        <v>1542,</v>
+      </c>
+      <c r="E54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E12)),0)&amp;","</f>
+        <v>1535,</v>
+      </c>
+      <c r="F54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F12)),0)&amp;","</f>
+        <v>1528,</v>
+      </c>
+      <c r="G54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G12)),0)&amp;","</f>
+        <v>1520,</v>
+      </c>
+      <c r="H54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H12)),0)&amp;","</f>
+        <v>1512,</v>
+      </c>
+      <c r="I54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I12)),0)&amp;","</f>
+        <v>1503,</v>
+      </c>
+      <c r="J54" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J12)),0)&amp;","</f>
+        <v>1494,</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A13)),0)</f>
-        <v>1484</v>
-      </c>
-      <c r="B55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B13)),0)</f>
-        <v>1474</v>
-      </c>
-      <c r="C55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C13)),0)</f>
-        <v>1463</v>
-      </c>
-      <c r="D55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D13)),0)</f>
-        <v>1452</v>
-      </c>
-      <c r="E55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E13)),0)</f>
-        <v>1441</v>
-      </c>
-      <c r="F55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F13)),0)</f>
-        <v>1429</v>
-      </c>
-      <c r="G55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G13)),0)</f>
-        <v>1416</v>
-      </c>
-      <c r="H55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H13)),0)</f>
-        <v>1403</v>
-      </c>
-      <c r="I55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I13)),0)</f>
-        <v>1390</v>
-      </c>
-      <c r="J55">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J13)),0)</f>
-        <v>1376</v>
+      <c r="A55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A13)),0)&amp;","</f>
+        <v>1484,</v>
+      </c>
+      <c r="B55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B13)),0)&amp;","</f>
+        <v>1474,</v>
+      </c>
+      <c r="C55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C13)),0)&amp;","</f>
+        <v>1463,</v>
+      </c>
+      <c r="D55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D13)),0)&amp;","</f>
+        <v>1452,</v>
+      </c>
+      <c r="E55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E13)),0)&amp;","</f>
+        <v>1441,</v>
+      </c>
+      <c r="F55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F13)),0)&amp;","</f>
+        <v>1429,</v>
+      </c>
+      <c r="G55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G13)),0)&amp;","</f>
+        <v>1416,</v>
+      </c>
+      <c r="H55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H13)),0)&amp;","</f>
+        <v>1403,</v>
+      </c>
+      <c r="I55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I13)),0)&amp;","</f>
+        <v>1390,</v>
+      </c>
+      <c r="J55" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J13)),0)&amp;","</f>
+        <v>1376,</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A14)),0)</f>
-        <v>1362</v>
-      </c>
-      <c r="B56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B14)),0)</f>
-        <v>1348</v>
-      </c>
-      <c r="C56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C14)),0)</f>
-        <v>1333</v>
-      </c>
-      <c r="D56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D14)),0)</f>
-        <v>1318</v>
-      </c>
-      <c r="E56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E14)),0)</f>
-        <v>1302</v>
-      </c>
-      <c r="F56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F14)),0)</f>
-        <v>1286</v>
-      </c>
-      <c r="G56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G14)),0)</f>
-        <v>1269</v>
-      </c>
-      <c r="H56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H14)),0)</f>
-        <v>1252</v>
-      </c>
-      <c r="I56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I14)),0)</f>
-        <v>1235</v>
-      </c>
-      <c r="J56">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J14)),0)</f>
-        <v>1218</v>
+      <c r="A56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A14)),0)&amp;","</f>
+        <v>1362,</v>
+      </c>
+      <c r="B56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B14)),0)&amp;","</f>
+        <v>1348,</v>
+      </c>
+      <c r="C56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C14)),0)&amp;","</f>
+        <v>1333,</v>
+      </c>
+      <c r="D56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D14)),0)&amp;","</f>
+        <v>1318,</v>
+      </c>
+      <c r="E56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E14)),0)&amp;","</f>
+        <v>1302,</v>
+      </c>
+      <c r="F56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F14)),0)&amp;","</f>
+        <v>1286,</v>
+      </c>
+      <c r="G56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G14)),0)&amp;","</f>
+        <v>1269,</v>
+      </c>
+      <c r="H56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H14)),0)&amp;","</f>
+        <v>1252,</v>
+      </c>
+      <c r="I56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I14)),0)&amp;","</f>
+        <v>1235,</v>
+      </c>
+      <c r="J56" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J14)),0)&amp;","</f>
+        <v>1218,</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A15)),0)</f>
-        <v>1199</v>
-      </c>
-      <c r="B57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B15)),0)</f>
-        <v>1181</v>
-      </c>
-      <c r="C57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C15)),0)</f>
-        <v>1162</v>
-      </c>
-      <c r="D57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D15)),0)</f>
-        <v>1143</v>
-      </c>
-      <c r="E57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E15)),0)</f>
-        <v>1124</v>
-      </c>
-      <c r="F57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F15)),0)</f>
-        <v>1104</v>
-      </c>
-      <c r="G57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G15)),0)</f>
-        <v>1084</v>
-      </c>
-      <c r="H57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H15)),0)</f>
-        <v>1063</v>
-      </c>
-      <c r="I57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I15)),0)</f>
-        <v>1043</v>
-      </c>
-      <c r="J57">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J15)),0)</f>
-        <v>1022</v>
+      <c r="A57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A15)),0)&amp;","</f>
+        <v>1199,</v>
+      </c>
+      <c r="B57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B15)),0)&amp;","</f>
+        <v>1181,</v>
+      </c>
+      <c r="C57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C15)),0)&amp;","</f>
+        <v>1162,</v>
+      </c>
+      <c r="D57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D15)),0)&amp;","</f>
+        <v>1143,</v>
+      </c>
+      <c r="E57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E15)),0)&amp;","</f>
+        <v>1124,</v>
+      </c>
+      <c r="F57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F15)),0)&amp;","</f>
+        <v>1104,</v>
+      </c>
+      <c r="G57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G15)),0)&amp;","</f>
+        <v>1084,</v>
+      </c>
+      <c r="H57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H15)),0)&amp;","</f>
+        <v>1063,</v>
+      </c>
+      <c r="I57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I15)),0)&amp;","</f>
+        <v>1043,</v>
+      </c>
+      <c r="J57" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J15)),0)&amp;","</f>
+        <v>1022,</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A16)),0)</f>
-        <v>1000</v>
-      </c>
-      <c r="B58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B16)),0)</f>
-        <v>978</v>
-      </c>
-      <c r="C58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C16)),0)</f>
-        <v>956</v>
-      </c>
-      <c r="D58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D16)),0)</f>
-        <v>934</v>
-      </c>
-      <c r="E58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E16)),0)</f>
-        <v>911</v>
-      </c>
-      <c r="F58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F16)),0)</f>
-        <v>889</v>
-      </c>
-      <c r="G58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G16)),0)</f>
-        <v>865</v>
-      </c>
-      <c r="H58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H16)),0)</f>
-        <v>842</v>
-      </c>
-      <c r="I58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I16)),0)</f>
-        <v>818</v>
-      </c>
-      <c r="J58">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J16)),0)</f>
-        <v>795</v>
+      <c r="A58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A16)),0)&amp;","</f>
+        <v>1000,</v>
+      </c>
+      <c r="B58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B16)),0)&amp;","</f>
+        <v>978,</v>
+      </c>
+      <c r="C58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C16)),0)&amp;","</f>
+        <v>956,</v>
+      </c>
+      <c r="D58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D16)),0)&amp;","</f>
+        <v>934,</v>
+      </c>
+      <c r="E58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E16)),0)&amp;","</f>
+        <v>911,</v>
+      </c>
+      <c r="F58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F16)),0)&amp;","</f>
+        <v>889,</v>
+      </c>
+      <c r="G58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G16)),0)&amp;","</f>
+        <v>865,</v>
+      </c>
+      <c r="H58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H16)),0)&amp;","</f>
+        <v>842,</v>
+      </c>
+      <c r="I58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I16)),0)&amp;","</f>
+        <v>818,</v>
+      </c>
+      <c r="J58" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J16)),0)&amp;","</f>
+        <v>795,</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A17)),0)</f>
-        <v>770</v>
-      </c>
-      <c r="B59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B17)),0)</f>
-        <v>746</v>
-      </c>
-      <c r="C59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C17)),0)</f>
-        <v>721</v>
-      </c>
-      <c r="D59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D17)),0)</f>
-        <v>697</v>
-      </c>
-      <c r="E59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E17)),0)</f>
-        <v>671</v>
-      </c>
-      <c r="F59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F17)),0)</f>
-        <v>646</v>
-      </c>
-      <c r="G59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G17)),0)</f>
-        <v>621</v>
-      </c>
-      <c r="H59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H17)),0)</f>
-        <v>595</v>
-      </c>
-      <c r="I59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I17)),0)</f>
-        <v>569</v>
-      </c>
-      <c r="J59">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J17)),0)</f>
-        <v>543</v>
+      <c r="A59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A17)),0)&amp;","</f>
+        <v>770,</v>
+      </c>
+      <c r="B59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B17)),0)&amp;","</f>
+        <v>746,</v>
+      </c>
+      <c r="C59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C17)),0)&amp;","</f>
+        <v>721,</v>
+      </c>
+      <c r="D59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D17)),0)&amp;","</f>
+        <v>697,</v>
+      </c>
+      <c r="E59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E17)),0)&amp;","</f>
+        <v>671,</v>
+      </c>
+      <c r="F59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F17)),0)&amp;","</f>
+        <v>646,</v>
+      </c>
+      <c r="G59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G17)),0)&amp;","</f>
+        <v>621,</v>
+      </c>
+      <c r="H59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H17)),0)&amp;","</f>
+        <v>595,</v>
+      </c>
+      <c r="I59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I17)),0)&amp;","</f>
+        <v>569,</v>
+      </c>
+      <c r="J59" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J17)),0)&amp;","</f>
+        <v>543,</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A18)),0)</f>
-        <v>517</v>
-      </c>
-      <c r="B60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B18)),0)</f>
-        <v>491</v>
-      </c>
-      <c r="C60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C18)),0)</f>
-        <v>464</v>
-      </c>
-      <c r="D60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D18)),0)</f>
-        <v>438</v>
-      </c>
-      <c r="E60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E18)),0)</f>
-        <v>411</v>
-      </c>
-      <c r="F60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F18)),0)</f>
-        <v>384</v>
-      </c>
-      <c r="G60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G18)),0)</f>
-        <v>357</v>
-      </c>
-      <c r="H60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H18)),0)</f>
-        <v>330</v>
-      </c>
-      <c r="I60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I18)),0)</f>
-        <v>303</v>
-      </c>
-      <c r="J60">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J18)),0)</f>
-        <v>276</v>
+      <c r="A60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A18)),0)&amp;","</f>
+        <v>517,</v>
+      </c>
+      <c r="B60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B18)),0)&amp;","</f>
+        <v>491,</v>
+      </c>
+      <c r="C60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C18)),0)&amp;","</f>
+        <v>464,</v>
+      </c>
+      <c r="D60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D18)),0)&amp;","</f>
+        <v>438,</v>
+      </c>
+      <c r="E60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E18)),0)&amp;","</f>
+        <v>411,</v>
+      </c>
+      <c r="F60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F18)),0)&amp;","</f>
+        <v>384,</v>
+      </c>
+      <c r="G60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G18)),0)&amp;","</f>
+        <v>357,</v>
+      </c>
+      <c r="H60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H18)),0)&amp;","</f>
+        <v>330,</v>
+      </c>
+      <c r="I60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I18)),0)&amp;","</f>
+        <v>303,</v>
+      </c>
+      <c r="J60" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J18)),0)&amp;","</f>
+        <v>276,</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A19)),0)</f>
-        <v>248</v>
-      </c>
-      <c r="B61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B19)),0)</f>
-        <v>221</v>
-      </c>
-      <c r="C61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C19)),0)</f>
-        <v>193</v>
-      </c>
-      <c r="D61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D19)),0)</f>
-        <v>166</v>
-      </c>
-      <c r="E61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E19)),0)</f>
-        <v>138</v>
-      </c>
-      <c r="F61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F19)),0)</f>
-        <v>110</v>
-      </c>
-      <c r="G61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G19)),0)</f>
-        <v>83</v>
-      </c>
-      <c r="H61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H19)),0)</f>
-        <v>55</v>
-      </c>
-      <c r="I61">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I19)),0)</f>
-        <v>27</v>
+      <c r="A61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A19)),0)&amp;","</f>
+        <v>248,</v>
+      </c>
+      <c r="B61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B19)),0)&amp;","</f>
+        <v>221,</v>
+      </c>
+      <c r="C61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C19)),0)&amp;","</f>
+        <v>193,</v>
+      </c>
+      <c r="D61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D19)),0)&amp;","</f>
+        <v>166,</v>
+      </c>
+      <c r="E61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E19)),0)&amp;","</f>
+        <v>138,</v>
+      </c>
+      <c r="F61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F19)),0)&amp;","</f>
+        <v>110,</v>
+      </c>
+      <c r="G61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G19)),0)&amp;","</f>
+        <v>83,</v>
+      </c>
+      <c r="H61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H19)),0)&amp;","</f>
+        <v>55,</v>
+      </c>
+      <c r="I61" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I19)),0)&amp;","</f>
+        <v>27,</v>
       </c>
       <c r="J61">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(J19)),0)</f>

--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -10,10 +10,24 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MAX">Sheet1!$F$1</definedName>
+    <definedName name="MAX">Sheet1!$Q$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Copy and paste table directly</t>
+  </si>
+  <si>
+    <t>List of angles used</t>
+  </si>
+  <si>
+    <t>Max value to use</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,26 +367,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="36" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1">
-        <f>1599-9</f>
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -409,8 +439,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>1599-9</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+10</f>
         <v>11</v>
@@ -452,7 +486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A13" si="1">A3+10</f>
         <v>21</v>
@@ -494,7 +528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -536,7 +570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -578,7 +612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -620,7 +654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -662,7 +696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -704,7 +738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -746,7 +780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -788,7 +822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -830,7 +864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -872,7 +906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:A19" si="12">A13+10</f>
         <v>121</v>
@@ -914,7 +948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="12"/>
         <v>131</v>
@@ -956,7 +990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="12"/>
         <v>141</v>
@@ -1124,763 +1158,781 @@
         <v>180</v>
       </c>
     </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A2)),0)&amp;","</f>
+        <v>27,</v>
+      </c>
+      <c r="B43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B2)),0)&amp;","</f>
+        <v>55,</v>
+      </c>
+      <c r="C43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C2)),0)&amp;","</f>
+        <v>83,</v>
+      </c>
+      <c r="D43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D2)),0)&amp;","</f>
+        <v>110,</v>
+      </c>
+      <c r="E43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E2)),0)&amp;","</f>
+        <v>138,</v>
+      </c>
+      <c r="F43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F2)),0)&amp;","</f>
+        <v>166,</v>
+      </c>
+      <c r="G43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G2)),0)&amp;","</f>
+        <v>193,</v>
+      </c>
+      <c r="H43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H2)),0)&amp;","</f>
+        <v>221,</v>
+      </c>
+      <c r="I43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I2)),0)&amp;","</f>
+        <v>248,</v>
+      </c>
+      <c r="J43" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J2)),0)&amp;","</f>
+        <v>276,</v>
+      </c>
+    </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A2)),0)&amp;","</f>
-        <v>27,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A3)),0)&amp;","</f>
+        <v>303,</v>
       </c>
       <c r="B44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B2)),0)&amp;","</f>
-        <v>55,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B3)),0)&amp;","</f>
+        <v>330,</v>
       </c>
       <c r="C44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C2)),0)&amp;","</f>
-        <v>83,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C3)),0)&amp;","</f>
+        <v>357,</v>
       </c>
       <c r="D44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D2)),0)&amp;","</f>
-        <v>110,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D3)),0)&amp;","</f>
+        <v>384,</v>
       </c>
       <c r="E44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E2)),0)&amp;","</f>
-        <v>138,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E3)),0)&amp;","</f>
+        <v>411,</v>
       </c>
       <c r="F44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F2)),0)&amp;","</f>
-        <v>166,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F3)),0)&amp;","</f>
+        <v>438,</v>
       </c>
       <c r="G44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G2)),0)&amp;","</f>
-        <v>193,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G3)),0)&amp;","</f>
+        <v>464,</v>
       </c>
       <c r="H44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H2)),0)&amp;","</f>
-        <v>221,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H3)),0)&amp;","</f>
+        <v>491,</v>
       </c>
       <c r="I44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I2)),0)&amp;","</f>
-        <v>248,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I3)),0)&amp;","</f>
+        <v>517,</v>
       </c>
       <c r="J44" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J2)),0)&amp;","</f>
-        <v>276,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J3)),0)&amp;","</f>
+        <v>543,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A3)),0)&amp;","</f>
-        <v>303,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A4)),0)&amp;","</f>
+        <v>569,</v>
       </c>
       <c r="B45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B3)),0)&amp;","</f>
-        <v>330,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B4)),0)&amp;","</f>
+        <v>595,</v>
       </c>
       <c r="C45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C3)),0)&amp;","</f>
-        <v>357,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C4)),0)&amp;","</f>
+        <v>621,</v>
       </c>
       <c r="D45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D3)),0)&amp;","</f>
-        <v>384,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D4)),0)&amp;","</f>
+        <v>646,</v>
       </c>
       <c r="E45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E3)),0)&amp;","</f>
-        <v>411,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E4)),0)&amp;","</f>
+        <v>671,</v>
       </c>
       <c r="F45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F3)),0)&amp;","</f>
-        <v>438,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F4)),0)&amp;","</f>
+        <v>697,</v>
       </c>
       <c r="G45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G3)),0)&amp;","</f>
-        <v>464,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G4)),0)&amp;","</f>
+        <v>721,</v>
       </c>
       <c r="H45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H3)),0)&amp;","</f>
-        <v>491,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H4)),0)&amp;","</f>
+        <v>746,</v>
       </c>
       <c r="I45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I3)),0)&amp;","</f>
-        <v>517,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I4)),0)&amp;","</f>
+        <v>770,</v>
       </c>
       <c r="J45" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J3)),0)&amp;","</f>
-        <v>543,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J4)),0)&amp;","</f>
+        <v>795,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A4)),0)&amp;","</f>
-        <v>569,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A5)),0)&amp;","</f>
+        <v>818,</v>
       </c>
       <c r="B46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B4)),0)&amp;","</f>
-        <v>595,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B5)),0)&amp;","</f>
+        <v>842,</v>
       </c>
       <c r="C46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C4)),0)&amp;","</f>
-        <v>621,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C5)),0)&amp;","</f>
+        <v>865,</v>
       </c>
       <c r="D46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D4)),0)&amp;","</f>
-        <v>646,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D5)),0)&amp;","</f>
+        <v>889,</v>
       </c>
       <c r="E46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E4)),0)&amp;","</f>
-        <v>671,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E5)),0)&amp;","</f>
+        <v>911,</v>
       </c>
       <c r="F46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F4)),0)&amp;","</f>
-        <v>697,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F5)),0)&amp;","</f>
+        <v>934,</v>
       </c>
       <c r="G46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G4)),0)&amp;","</f>
-        <v>721,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G5)),0)&amp;","</f>
+        <v>956,</v>
       </c>
       <c r="H46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H4)),0)&amp;","</f>
-        <v>746,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H5)),0)&amp;","</f>
+        <v>978,</v>
       </c>
       <c r="I46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I4)),0)&amp;","</f>
-        <v>770,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I5)),0)&amp;","</f>
+        <v>1000,</v>
       </c>
       <c r="J46" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J4)),0)&amp;","</f>
-        <v>795,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J5)),0)&amp;","</f>
+        <v>1022,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A5)),0)&amp;","</f>
-        <v>818,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A6)),0)&amp;","</f>
+        <v>1043,</v>
       </c>
       <c r="B47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B5)),0)&amp;","</f>
-        <v>842,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B6)),0)&amp;","</f>
+        <v>1063,</v>
       </c>
       <c r="C47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C5)),0)&amp;","</f>
-        <v>865,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C6)),0)&amp;","</f>
+        <v>1084,</v>
       </c>
       <c r="D47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D5)),0)&amp;","</f>
-        <v>889,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D6)),0)&amp;","</f>
+        <v>1104,</v>
       </c>
       <c r="E47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E5)),0)&amp;","</f>
-        <v>911,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E6)),0)&amp;","</f>
+        <v>1124,</v>
       </c>
       <c r="F47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F5)),0)&amp;","</f>
-        <v>934,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F6)),0)&amp;","</f>
+        <v>1143,</v>
       </c>
       <c r="G47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G5)),0)&amp;","</f>
-        <v>956,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G6)),0)&amp;","</f>
+        <v>1162,</v>
       </c>
       <c r="H47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H5)),0)&amp;","</f>
-        <v>978,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H6)),0)&amp;","</f>
+        <v>1181,</v>
       </c>
       <c r="I47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I5)),0)&amp;","</f>
-        <v>1000,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I6)),0)&amp;","</f>
+        <v>1199,</v>
       </c>
       <c r="J47" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J5)),0)&amp;","</f>
-        <v>1022,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J6)),0)&amp;","</f>
+        <v>1218,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A6)),0)&amp;","</f>
-        <v>1043,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A7)),0)&amp;","</f>
+        <v>1235,</v>
       </c>
       <c r="B48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B6)),0)&amp;","</f>
-        <v>1063,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B7)),0)&amp;","</f>
+        <v>1252,</v>
       </c>
       <c r="C48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C6)),0)&amp;","</f>
-        <v>1084,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C7)),0)&amp;","</f>
+        <v>1269,</v>
       </c>
       <c r="D48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D6)),0)&amp;","</f>
-        <v>1104,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D7)),0)&amp;","</f>
+        <v>1286,</v>
       </c>
       <c r="E48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E6)),0)&amp;","</f>
-        <v>1124,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E7)),0)&amp;","</f>
+        <v>1302,</v>
       </c>
       <c r="F48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F6)),0)&amp;","</f>
-        <v>1143,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F7)),0)&amp;","</f>
+        <v>1318,</v>
       </c>
       <c r="G48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G6)),0)&amp;","</f>
-        <v>1162,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G7)),0)&amp;","</f>
+        <v>1333,</v>
       </c>
       <c r="H48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H6)),0)&amp;","</f>
-        <v>1181,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H7)),0)&amp;","</f>
+        <v>1348,</v>
       </c>
       <c r="I48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I6)),0)&amp;","</f>
-        <v>1199,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I7)),0)&amp;","</f>
+        <v>1362,</v>
       </c>
       <c r="J48" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J6)),0)&amp;","</f>
-        <v>1218,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J7)),0)&amp;","</f>
+        <v>1376,</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A7)),0)&amp;","</f>
-        <v>1235,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A8)),0)&amp;","</f>
+        <v>1390,</v>
       </c>
       <c r="B49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B7)),0)&amp;","</f>
-        <v>1252,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B8)),0)&amp;","</f>
+        <v>1403,</v>
       </c>
       <c r="C49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C7)),0)&amp;","</f>
-        <v>1269,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C8)),0)&amp;","</f>
+        <v>1416,</v>
       </c>
       <c r="D49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D7)),0)&amp;","</f>
-        <v>1286,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D8)),0)&amp;","</f>
+        <v>1429,</v>
       </c>
       <c r="E49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E7)),0)&amp;","</f>
-        <v>1302,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E8)),0)&amp;","</f>
+        <v>1441,</v>
       </c>
       <c r="F49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F7)),0)&amp;","</f>
-        <v>1318,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F8)),0)&amp;","</f>
+        <v>1452,</v>
       </c>
       <c r="G49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G7)),0)&amp;","</f>
-        <v>1333,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G8)),0)&amp;","</f>
+        <v>1463,</v>
       </c>
       <c r="H49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H7)),0)&amp;","</f>
-        <v>1348,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H8)),0)&amp;","</f>
+        <v>1474,</v>
       </c>
       <c r="I49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I7)),0)&amp;","</f>
-        <v>1362,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I8)),0)&amp;","</f>
+        <v>1484,</v>
       </c>
       <c r="J49" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J7)),0)&amp;","</f>
-        <v>1376,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J8)),0)&amp;","</f>
+        <v>1494,</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A8)),0)&amp;","</f>
-        <v>1390,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A9)),0)&amp;","</f>
+        <v>1503,</v>
       </c>
       <c r="B50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B8)),0)&amp;","</f>
-        <v>1403,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B9)),0)&amp;","</f>
+        <v>1512,</v>
       </c>
       <c r="C50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C8)),0)&amp;","</f>
-        <v>1416,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C9)),0)&amp;","</f>
+        <v>1520,</v>
       </c>
       <c r="D50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D8)),0)&amp;","</f>
-        <v>1429,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D9)),0)&amp;","</f>
+        <v>1528,</v>
       </c>
       <c r="E50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E8)),0)&amp;","</f>
-        <v>1441,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E9)),0)&amp;","</f>
+        <v>1535,</v>
       </c>
       <c r="F50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F8)),0)&amp;","</f>
-        <v>1452,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F9)),0)&amp;","</f>
+        <v>1542,</v>
       </c>
       <c r="G50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G8)),0)&amp;","</f>
-        <v>1463,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G9)),0)&amp;","</f>
+        <v>1549,</v>
       </c>
       <c r="H50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H8)),0)&amp;","</f>
-        <v>1474,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H9)),0)&amp;","</f>
+        <v>1555,</v>
       </c>
       <c r="I50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I8)),0)&amp;","</f>
-        <v>1484,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I9)),0)&amp;","</f>
+        <v>1560,</v>
       </c>
       <c r="J50" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J8)),0)&amp;","</f>
-        <v>1494,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J9)),0)&amp;","</f>
+        <v>1565,</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A9)),0)&amp;","</f>
-        <v>1503,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A10)),0)&amp;","</f>
+        <v>1570,</v>
       </c>
       <c r="B51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B9)),0)&amp;","</f>
-        <v>1512,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B10)),0)&amp;","</f>
+        <v>1574,</v>
       </c>
       <c r="C51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C9)),0)&amp;","</f>
-        <v>1520,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C10)),0)&amp;","</f>
+        <v>1578,</v>
       </c>
       <c r="D51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D9)),0)&amp;","</f>
-        <v>1528,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D10)),0)&amp;","</f>
+        <v>1581,</v>
       </c>
       <c r="E51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E9)),0)&amp;","</f>
-        <v>1535,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E10)),0)&amp;","</f>
+        <v>1583,</v>
       </c>
       <c r="F51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F9)),0)&amp;","</f>
-        <v>1542,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F10)),0)&amp;","</f>
+        <v>1586,</v>
       </c>
       <c r="G51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G9)),0)&amp;","</f>
-        <v>1549,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G10)),0)&amp;","</f>
+        <v>1587,</v>
       </c>
       <c r="H51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H9)),0)&amp;","</f>
-        <v>1555,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H10)),0)&amp;","</f>
+        <v>1589,</v>
       </c>
       <c r="I51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I9)),0)&amp;","</f>
-        <v>1560,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I10)),0)&amp;","</f>
+        <v>1589,</v>
       </c>
       <c r="J51" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J9)),0)&amp;","</f>
-        <v>1565,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J10)),0)&amp;","</f>
+        <v>1590,</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A10)),0)&amp;","</f>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A11)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="B52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B11)),0)&amp;","</f>
+        <v>1589,</v>
+      </c>
+      <c r="C52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C11)),0)&amp;","</f>
+        <v>1587,</v>
+      </c>
+      <c r="D52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D11)),0)&amp;","</f>
+        <v>1586,</v>
+      </c>
+      <c r="E52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E11)),0)&amp;","</f>
+        <v>1583,</v>
+      </c>
+      <c r="F52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F11)),0)&amp;","</f>
+        <v>1581,</v>
+      </c>
+      <c r="G52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G11)),0)&amp;","</f>
+        <v>1578,</v>
+      </c>
+      <c r="H52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H11)),0)&amp;","</f>
+        <v>1574,</v>
+      </c>
+      <c r="I52" t="str">
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I11)),0)&amp;","</f>
         <v>1570,</v>
       </c>
-      <c r="B52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B10)),0)&amp;","</f>
-        <v>1574,</v>
-      </c>
-      <c r="C52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C10)),0)&amp;","</f>
-        <v>1578,</v>
-      </c>
-      <c r="D52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D10)),0)&amp;","</f>
-        <v>1581,</v>
-      </c>
-      <c r="E52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E10)),0)&amp;","</f>
-        <v>1583,</v>
-      </c>
-      <c r="F52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F10)),0)&amp;","</f>
-        <v>1586,</v>
-      </c>
-      <c r="G52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G10)),0)&amp;","</f>
-        <v>1587,</v>
-      </c>
-      <c r="H52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H10)),0)&amp;","</f>
-        <v>1589,</v>
-      </c>
-      <c r="I52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I10)),0)&amp;","</f>
-        <v>1589,</v>
-      </c>
       <c r="J52" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J10)),0)&amp;","</f>
-        <v>1590,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J11)),0)&amp;","</f>
+        <v>1565,</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A11)),0)&amp;","</f>
-        <v>1589,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A12)),0)&amp;","</f>
+        <v>1560,</v>
       </c>
       <c r="B53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B11)),0)&amp;","</f>
-        <v>1589,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B12)),0)&amp;","</f>
+        <v>1555,</v>
       </c>
       <c r="C53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C11)),0)&amp;","</f>
-        <v>1587,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C12)),0)&amp;","</f>
+        <v>1549,</v>
       </c>
       <c r="D53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D11)),0)&amp;","</f>
-        <v>1586,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D12)),0)&amp;","</f>
+        <v>1542,</v>
       </c>
       <c r="E53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E11)),0)&amp;","</f>
-        <v>1583,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E12)),0)&amp;","</f>
+        <v>1535,</v>
       </c>
       <c r="F53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F11)),0)&amp;","</f>
-        <v>1581,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F12)),0)&amp;","</f>
+        <v>1528,</v>
       </c>
       <c r="G53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G11)),0)&amp;","</f>
-        <v>1578,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G12)),0)&amp;","</f>
+        <v>1520,</v>
       </c>
       <c r="H53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H11)),0)&amp;","</f>
-        <v>1574,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H12)),0)&amp;","</f>
+        <v>1512,</v>
       </c>
       <c r="I53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I11)),0)&amp;","</f>
-        <v>1570,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I12)),0)&amp;","</f>
+        <v>1503,</v>
       </c>
       <c r="J53" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J11)),0)&amp;","</f>
-        <v>1565,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J12)),0)&amp;","</f>
+        <v>1494,</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A12)),0)&amp;","</f>
-        <v>1560,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A13)),0)&amp;","</f>
+        <v>1484,</v>
       </c>
       <c r="B54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B12)),0)&amp;","</f>
-        <v>1555,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B13)),0)&amp;","</f>
+        <v>1474,</v>
       </c>
       <c r="C54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C12)),0)&amp;","</f>
-        <v>1549,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C13)),0)&amp;","</f>
+        <v>1463,</v>
       </c>
       <c r="D54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D12)),0)&amp;","</f>
-        <v>1542,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D13)),0)&amp;","</f>
+        <v>1452,</v>
       </c>
       <c r="E54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E12)),0)&amp;","</f>
-        <v>1535,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E13)),0)&amp;","</f>
+        <v>1441,</v>
       </c>
       <c r="F54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F12)),0)&amp;","</f>
-        <v>1528,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F13)),0)&amp;","</f>
+        <v>1429,</v>
       </c>
       <c r="G54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G12)),0)&amp;","</f>
-        <v>1520,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G13)),0)&amp;","</f>
+        <v>1416,</v>
       </c>
       <c r="H54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H12)),0)&amp;","</f>
-        <v>1512,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H13)),0)&amp;","</f>
+        <v>1403,</v>
       </c>
       <c r="I54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I12)),0)&amp;","</f>
-        <v>1503,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I13)),0)&amp;","</f>
+        <v>1390,</v>
       </c>
       <c r="J54" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J12)),0)&amp;","</f>
-        <v>1494,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J13)),0)&amp;","</f>
+        <v>1376,</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A13)),0)&amp;","</f>
-        <v>1484,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A14)),0)&amp;","</f>
+        <v>1362,</v>
       </c>
       <c r="B55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B13)),0)&amp;","</f>
-        <v>1474,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B14)),0)&amp;","</f>
+        <v>1348,</v>
       </c>
       <c r="C55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C13)),0)&amp;","</f>
-        <v>1463,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C14)),0)&amp;","</f>
+        <v>1333,</v>
       </c>
       <c r="D55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D13)),0)&amp;","</f>
-        <v>1452,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D14)),0)&amp;","</f>
+        <v>1318,</v>
       </c>
       <c r="E55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E13)),0)&amp;","</f>
-        <v>1441,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E14)),0)&amp;","</f>
+        <v>1302,</v>
       </c>
       <c r="F55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F13)),0)&amp;","</f>
-        <v>1429,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F14)),0)&amp;","</f>
+        <v>1286,</v>
       </c>
       <c r="G55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G13)),0)&amp;","</f>
-        <v>1416,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G14)),0)&amp;","</f>
+        <v>1269,</v>
       </c>
       <c r="H55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H13)),0)&amp;","</f>
-        <v>1403,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H14)),0)&amp;","</f>
+        <v>1252,</v>
       </c>
       <c r="I55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I13)),0)&amp;","</f>
-        <v>1390,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I14)),0)&amp;","</f>
+        <v>1235,</v>
       </c>
       <c r="J55" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J13)),0)&amp;","</f>
-        <v>1376,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J14)),0)&amp;","</f>
+        <v>1218,</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A14)),0)&amp;","</f>
-        <v>1362,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A15)),0)&amp;","</f>
+        <v>1199,</v>
       </c>
       <c r="B56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B14)),0)&amp;","</f>
-        <v>1348,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B15)),0)&amp;","</f>
+        <v>1181,</v>
       </c>
       <c r="C56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C14)),0)&amp;","</f>
-        <v>1333,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C15)),0)&amp;","</f>
+        <v>1162,</v>
       </c>
       <c r="D56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D14)),0)&amp;","</f>
-        <v>1318,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D15)),0)&amp;","</f>
+        <v>1143,</v>
       </c>
       <c r="E56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E14)),0)&amp;","</f>
-        <v>1302,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E15)),0)&amp;","</f>
+        <v>1124,</v>
       </c>
       <c r="F56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F14)),0)&amp;","</f>
-        <v>1286,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F15)),0)&amp;","</f>
+        <v>1104,</v>
       </c>
       <c r="G56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G14)),0)&amp;","</f>
-        <v>1269,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G15)),0)&amp;","</f>
+        <v>1084,</v>
       </c>
       <c r="H56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H14)),0)&amp;","</f>
-        <v>1252,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H15)),0)&amp;","</f>
+        <v>1063,</v>
       </c>
       <c r="I56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I14)),0)&amp;","</f>
-        <v>1235,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I15)),0)&amp;","</f>
+        <v>1043,</v>
       </c>
       <c r="J56" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J14)),0)&amp;","</f>
-        <v>1218,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J15)),0)&amp;","</f>
+        <v>1022,</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A15)),0)&amp;","</f>
-        <v>1199,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A16)),0)&amp;","</f>
+        <v>1000,</v>
       </c>
       <c r="B57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B15)),0)&amp;","</f>
-        <v>1181,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B16)),0)&amp;","</f>
+        <v>978,</v>
       </c>
       <c r="C57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C15)),0)&amp;","</f>
-        <v>1162,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C16)),0)&amp;","</f>
+        <v>956,</v>
       </c>
       <c r="D57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D15)),0)&amp;","</f>
-        <v>1143,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D16)),0)&amp;","</f>
+        <v>934,</v>
       </c>
       <c r="E57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E15)),0)&amp;","</f>
-        <v>1124,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E16)),0)&amp;","</f>
+        <v>911,</v>
       </c>
       <c r="F57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F15)),0)&amp;","</f>
-        <v>1104,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F16)),0)&amp;","</f>
+        <v>889,</v>
       </c>
       <c r="G57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G15)),0)&amp;","</f>
-        <v>1084,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G16)),0)&amp;","</f>
+        <v>865,</v>
       </c>
       <c r="H57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H15)),0)&amp;","</f>
-        <v>1063,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H16)),0)&amp;","</f>
+        <v>842,</v>
       </c>
       <c r="I57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I15)),0)&amp;","</f>
-        <v>1043,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I16)),0)&amp;","</f>
+        <v>818,</v>
       </c>
       <c r="J57" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J15)),0)&amp;","</f>
-        <v>1022,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J16)),0)&amp;","</f>
+        <v>795,</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A16)),0)&amp;","</f>
-        <v>1000,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A17)),0)&amp;","</f>
+        <v>770,</v>
       </c>
       <c r="B58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B16)),0)&amp;","</f>
-        <v>978,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B17)),0)&amp;","</f>
+        <v>746,</v>
       </c>
       <c r="C58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C16)),0)&amp;","</f>
-        <v>956,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C17)),0)&amp;","</f>
+        <v>721,</v>
       </c>
       <c r="D58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D16)),0)&amp;","</f>
-        <v>934,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D17)),0)&amp;","</f>
+        <v>697,</v>
       </c>
       <c r="E58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E16)),0)&amp;","</f>
-        <v>911,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E17)),0)&amp;","</f>
+        <v>671,</v>
       </c>
       <c r="F58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F16)),0)&amp;","</f>
-        <v>889,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F17)),0)&amp;","</f>
+        <v>646,</v>
       </c>
       <c r="G58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G16)),0)&amp;","</f>
-        <v>865,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G17)),0)&amp;","</f>
+        <v>621,</v>
       </c>
       <c r="H58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H16)),0)&amp;","</f>
-        <v>842,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H17)),0)&amp;","</f>
+        <v>595,</v>
       </c>
       <c r="I58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I16)),0)&amp;","</f>
-        <v>818,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I17)),0)&amp;","</f>
+        <v>569,</v>
       </c>
       <c r="J58" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J16)),0)&amp;","</f>
-        <v>795,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J17)),0)&amp;","</f>
+        <v>543,</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A17)),0)&amp;","</f>
-        <v>770,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(A18)),0)&amp;","</f>
+        <v>517,</v>
       </c>
       <c r="B59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B17)),0)&amp;","</f>
-        <v>746,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(B18)),0)&amp;","</f>
+        <v>491,</v>
       </c>
       <c r="C59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C17)),0)&amp;","</f>
-        <v>721,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(C18)),0)&amp;","</f>
+        <v>464,</v>
       </c>
       <c r="D59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D17)),0)&amp;","</f>
-        <v>697,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(D18)),0)&amp;","</f>
+        <v>438,</v>
       </c>
       <c r="E59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E17)),0)&amp;","</f>
-        <v>671,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(E18)),0)&amp;","</f>
+        <v>411,</v>
       </c>
       <c r="F59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F17)),0)&amp;","</f>
-        <v>646,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(F18)),0)&amp;","</f>
+        <v>384,</v>
       </c>
       <c r="G59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G17)),0)&amp;","</f>
-        <v>621,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(G18)),0)&amp;","</f>
+        <v>357,</v>
       </c>
       <c r="H59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H17)),0)&amp;","</f>
-        <v>595,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(H18)),0)&amp;","</f>
+        <v>330,</v>
       </c>
       <c r="I59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I17)),0)&amp;","</f>
-        <v>569,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(I18)),0)&amp;","</f>
+        <v>303,</v>
       </c>
       <c r="J59" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J17)),0)&amp;","</f>
-        <v>543,</v>
+        <f>ROUNDDOWN(MAX*SIN(RADIANS(J18)),0)&amp;","</f>
+        <v>276,</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(A18)),0)&amp;","</f>
-        <v>517,</v>
-      </c>
-      <c r="B60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(B18)),0)&amp;","</f>
-        <v>491,</v>
-      </c>
-      <c r="C60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(C18)),0)&amp;","</f>
-        <v>464,</v>
-      </c>
-      <c r="D60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(D18)),0)&amp;","</f>
-        <v>438,</v>
-      </c>
-      <c r="E60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(E18)),0)&amp;","</f>
-        <v>411,</v>
-      </c>
-      <c r="F60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(F18)),0)&amp;","</f>
-        <v>384,</v>
-      </c>
-      <c r="G60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(G18)),0)&amp;","</f>
-        <v>357,</v>
-      </c>
-      <c r="H60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(H18)),0)&amp;","</f>
-        <v>330,</v>
-      </c>
-      <c r="I60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(I18)),0)&amp;","</f>
-        <v>303,</v>
-      </c>
-      <c r="J60" t="str">
-        <f>ROUNDDOWN(MAX*SIN(RADIANS(J18)),0)&amp;","</f>
-        <v>276,</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(A19)),0)&amp;","</f>
         <v>248,</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(B19)),0)&amp;","</f>
         <v>221,</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(C19)),0)&amp;","</f>
         <v>193,</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(D19)),0)&amp;","</f>
         <v>166,</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(E19)),0)&amp;","</f>
         <v>138,</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(F19)),0)&amp;","</f>
         <v>110,</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(G19)),0)&amp;","</f>
         <v>83,</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(H19)),0)&amp;","</f>
         <v>55,</v>
       </c>
-      <c r="I61" t="str">
+      <c r="I60" t="str">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(I19)),0)&amp;","</f>
         <v>27,</v>
       </c>
-      <c r="J61">
+      <c r="J60">
         <f>ROUNDDOWN(MAX*SIN(RADIANS(J19)),0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J15"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,8 @@
         <v>15</v>
       </c>
       <c r="Q2">
-        <v>500</v>
+        <f>1591</f>
+        <v>1591</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -538,7 +539,7 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -622,253 +623,253 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ref="A10:J10" si="0">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A2)),0)+MIN&amp;","</f>
-        <v>32,</v>
+        <v>24,</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>45,</v>
+        <v>66,</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>57,</v>
+        <v>108,</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>70,</v>
+        <v>150,</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>82,</v>
+        <v>192,</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>95,</v>
+        <v>233,</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>107,</v>
+        <v>275,</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>119,</v>
+        <v>316,</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>132,</v>
+        <v>357,</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>144,</v>
+        <v>398,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ref="A11:J11" si="1">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A3)),0)+MIN&amp;","</f>
-        <v>156,</v>
+        <v>438,</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="1"/>
-        <v>168,</v>
+        <v>479,</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>180,</v>
+        <v>519,</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v>192,</v>
+        <v>558,</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>203,</v>
+        <v>597,</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>215,</v>
+        <v>636,</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>226,</v>
+        <v>674,</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>237,</v>
+        <v>712,</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>249,</v>
+        <v>749,</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
-        <v>260,</v>
+        <v>786,</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ref="A12:J12" si="2">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A4)),0)+MIN&amp;","</f>
-        <v>270,</v>
+        <v>822,</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="2"/>
-        <v>281,</v>
+        <v>858,</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="2"/>
-        <v>291,</v>
+        <v>893,</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>302,</v>
+        <v>927,</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>312,</v>
+        <v>961,</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>322,</v>
+        <v>994,</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>331,</v>
+        <v>1026,</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="2"/>
-        <v>341,</v>
+        <v>1058,</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>350,</v>
+        <v>1089,</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>359,</v>
+        <v>1119,</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ref="A13:J13" si="3">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A5)),0)+MIN&amp;","</f>
-        <v>368,</v>
+        <v>1149,</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>376,</v>
+        <v>1177,</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
-        <v>384,</v>
+        <v>1205,</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
-        <v>393,</v>
+        <v>1232,</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>400,</v>
+        <v>1258,</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
-        <v>408,</v>
+        <v>1283,</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="3"/>
-        <v>415,</v>
+        <v>1308,</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
-        <v>422,</v>
+        <v>1331,</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="3"/>
-        <v>429,</v>
+        <v>1353,</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>435,</v>
+        <v>1375,</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ref="A14:J14" si="4">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A6)),0)+MIN&amp;","</f>
-        <v>441,</v>
+        <v>1396,</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="4"/>
-        <v>447,</v>
+        <v>1415,</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="4"/>
-        <v>453,</v>
+        <v>1434,</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="4"/>
-        <v>458,</v>
+        <v>1451,</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="4"/>
-        <v>463,</v>
+        <v>1468,</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="4"/>
-        <v>468,</v>
+        <v>1484,</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="4"/>
-        <v>472,</v>
+        <v>1498,</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="4"/>
-        <v>476,</v>
+        <v>1512,</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="4"/>
-        <v>480,</v>
+        <v>1524,</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="4"/>
-        <v>483,</v>
+        <v>1536,</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ref="A15:I15" si="5">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A7)),0)+MIN&amp;","</f>
-        <v>486,</v>
+        <v>1546,</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="5"/>
-        <v>489,</v>
+        <v>1555,</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="5"/>
-        <v>491,</v>
+        <v>1564,</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="5"/>
-        <v>494,</v>
+        <v>1571,</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="5"/>
-        <v>495,</v>
+        <v>1577,</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="5"/>
-        <v>497,</v>
+        <v>1582,</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="5"/>
-        <v>498,</v>
+        <v>1586,</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="5"/>
-        <v>499,</v>
+        <v>1588,</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="5"/>
-        <v>499,</v>
+        <v>1590,</v>
       </c>
       <c r="J15">
         <f>ROUNDDOWN((MAX-MIN)*SIN(RADIANS(J7)),0)+MIN</f>
-        <v>500</v>
+        <v>1591</v>
       </c>
     </row>
   </sheetData>

--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MAX">Sheet1!$Q$2</definedName>
-    <definedName name="MIN">Sheet1!$Q$5</definedName>
+    <definedName name="MAX">Sheet1!$Q$5</definedName>
+    <definedName name="MIN">Sheet1!$Q$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Copy and paste table directly</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Min value to use</t>
+  </si>
+  <si>
+    <t>Max period</t>
   </si>
 </sst>
 </file>
@@ -374,13 +377,15 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
@@ -401,209 +406,276 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2+1.5</f>
         <v>1.5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <f t="shared" ref="C2:J2" si="0">B2+1.5</f>
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
       <c r="Q2">
-        <f>1591</f>
-        <v>1591</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+13.5+1.5</f>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:J3" si="1">A3+1.5</f>
         <v>16.5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f t="shared" si="1"/>
         <v>28.5</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A7" si="2">A3+13.5+1.5</f>
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:J4" si="3">A4+1.5</f>
         <v>31.5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f t="shared" si="3"/>
         <v>34.5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <f t="shared" si="3"/>
         <v>43.5</v>
       </c>
-      <c r="J4">
-        <v>45</v>
-      </c>
       <c r="Q4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:J5" si="4">A5+1.5</f>
         <v>46.5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <f t="shared" si="4"/>
         <v>49.5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
       <c r="Q5">
-        <v>-18</v>
+        <f>ROUNDDOWN(Q2*0.95,0)</f>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:J6" si="5">A6+1.5</f>
         <v>61.5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <f t="shared" si="5"/>
         <v>70.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <f t="shared" si="5"/>
         <v>73.5</v>
-      </c>
-      <c r="J6">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:J7" si="6">A7+1.5</f>
         <v>76.5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <f t="shared" si="6"/>
         <v>79.5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <f t="shared" si="6"/>
         <v>88.5</v>
       </c>
-      <c r="J7">
-        <v>90</v>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -622,254 +694,254 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:J10" si="0">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A2)),0)+MIN&amp;","</f>
-        <v>24,</v>
+        <f t="shared" ref="A10:J10" si="7">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A2)),0)+MIN&amp;","</f>
+        <v>0,</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>66,</v>
+        <f t="shared" si="7"/>
+        <v>3,</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>108,</v>
+        <f t="shared" si="7"/>
+        <v>7,</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>150,</v>
+        <f t="shared" si="7"/>
+        <v>11,</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>192,</v>
+        <f t="shared" si="7"/>
+        <v>15,</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>233,</v>
+        <f t="shared" si="7"/>
+        <v>19,</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>275,</v>
+        <f t="shared" si="7"/>
+        <v>23,</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>316,</v>
+        <f t="shared" si="7"/>
+        <v>27,</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>357,</v>
+        <f t="shared" si="7"/>
+        <v>31,</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>398,</v>
+        <f t="shared" si="7"/>
+        <v>35,</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" ref="A11:J11" si="1">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A3)),0)+MIN&amp;","</f>
-        <v>438,</v>
+        <f t="shared" ref="A11:J11" si="8">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A3)),0)+MIN&amp;","</f>
+        <v>39,</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="1"/>
-        <v>479,</v>
+        <f t="shared" si="8"/>
+        <v>42,</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>519,</v>
+        <f t="shared" si="8"/>
+        <v>46,</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>558,</v>
+        <f t="shared" si="8"/>
+        <v>50,</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>597,</v>
+        <f t="shared" si="8"/>
+        <v>54,</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>636,</v>
+        <f t="shared" si="8"/>
+        <v>57,</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>674,</v>
+        <f t="shared" si="8"/>
+        <v>61,</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>712,</v>
+        <f t="shared" si="8"/>
+        <v>65,</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>749,</v>
+        <f t="shared" si="8"/>
+        <v>68,</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v>786,</v>
+        <f t="shared" si="8"/>
+        <v>72,</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" ref="A12:J12" si="2">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A4)),0)+MIN&amp;","</f>
-        <v>822,</v>
+        <f t="shared" ref="A12:J12" si="9">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A4)),0)+MIN&amp;","</f>
+        <v>75,</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
-        <v>858,</v>
+        <f t="shared" si="9"/>
+        <v>78,</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="2"/>
-        <v>893,</v>
+        <f t="shared" si="9"/>
+        <v>82,</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>927,</v>
+        <f t="shared" si="9"/>
+        <v>85,</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>961,</v>
+        <f t="shared" si="9"/>
+        <v>88,</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
-        <v>994,</v>
+        <f t="shared" si="9"/>
+        <v>91,</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>1026,</v>
+        <f t="shared" si="9"/>
+        <v>95,</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>1058,</v>
+        <f t="shared" si="9"/>
+        <v>98,</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>1089,</v>
+        <f t="shared" si="9"/>
+        <v>101,</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="2"/>
-        <v>1119,</v>
+        <f t="shared" si="9"/>
+        <v>103,</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" ref="A13:J13" si="3">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A5)),0)+MIN&amp;","</f>
-        <v>1149,</v>
+        <f t="shared" ref="A13:J13" si="10">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A5)),0)+MIN&amp;","</f>
+        <v>106,</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="3"/>
-        <v>1177,</v>
+        <f t="shared" si="10"/>
+        <v>109,</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="3"/>
-        <v>1205,</v>
+        <f t="shared" si="10"/>
+        <v>112,</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="3"/>
-        <v>1232,</v>
+        <f t="shared" si="10"/>
+        <v>114,</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>1258,</v>
+        <f t="shared" si="10"/>
+        <v>117,</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="3"/>
-        <v>1283,</v>
+        <f t="shared" si="10"/>
+        <v>119,</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>1308,</v>
+        <f t="shared" si="10"/>
+        <v>122,</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="3"/>
-        <v>1331,</v>
+        <f t="shared" si="10"/>
+        <v>124,</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>1353,</v>
+        <f t="shared" si="10"/>
+        <v>126,</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
-        <v>1375,</v>
+        <f t="shared" si="10"/>
+        <v>128,</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:J14" si="4">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A6)),0)+MIN&amp;","</f>
-        <v>1396,</v>
+        <f t="shared" ref="A14:J14" si="11">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A6)),0)+MIN&amp;","</f>
+        <v>130,</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="4"/>
-        <v>1415,</v>
+        <f t="shared" si="11"/>
+        <v>132,</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="4"/>
-        <v>1434,</v>
+        <f t="shared" si="11"/>
+        <v>134,</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="4"/>
-        <v>1451,</v>
+        <f t="shared" si="11"/>
+        <v>136,</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="4"/>
-        <v>1468,</v>
+        <f t="shared" si="11"/>
+        <v>137,</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
-        <v>1484,</v>
+        <f t="shared" si="11"/>
+        <v>139,</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="4"/>
-        <v>1498,</v>
+        <f t="shared" si="11"/>
+        <v>140,</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>1512,</v>
+        <f t="shared" si="11"/>
+        <v>142,</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
-        <v>1524,</v>
+        <f t="shared" si="11"/>
+        <v>143,</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v>1536,</v>
+        <f t="shared" si="11"/>
+        <v>144,</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" ref="A15:I15" si="5">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A7)),0)+MIN&amp;","</f>
-        <v>1546,</v>
+        <f t="shared" ref="A15:I15" si="12">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A7)),0)+MIN&amp;","</f>
+        <v>145,</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="5"/>
-        <v>1555,</v>
+        <f t="shared" si="12"/>
+        <v>146,</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="5"/>
-        <v>1564,</v>
+        <f t="shared" si="12"/>
+        <v>147,</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="5"/>
-        <v>1571,</v>
+        <f t="shared" si="12"/>
+        <v>148,</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="5"/>
-        <v>1577,</v>
+        <f t="shared" si="12"/>
+        <v>149,</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="5"/>
-        <v>1582,</v>
+        <f t="shared" si="12"/>
+        <v>149,</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
-        <v>1586,</v>
+        <f t="shared" si="12"/>
+        <v>150,</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="5"/>
-        <v>1588,</v>
+        <f t="shared" si="12"/>
+        <v>150,</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="5"/>
-        <v>1590,</v>
+        <f t="shared" si="12"/>
+        <v>150,</v>
       </c>
       <c r="J15">
         <f>ROUNDDOWN((MAX-MIN)*SIN(RADIANS(J7)),0)+MIN</f>
-        <v>1591</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -116,18 +116,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +434,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J23"/>
+      <selection activeCell="J18" sqref="A18:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,18 +450,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
@@ -506,7 +506,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>159</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f>90/59</f>
         <v>1.5254237288135593</v>
       </c>
@@ -731,63 +731,63 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f>A2*$Q$5</f>
+      <c r="A10" s="4">
+        <f t="shared" ref="A10:J10" si="6">A2*$Q$5</f>
         <v>0</v>
       </c>
-      <c r="B10" s="6">
-        <f>B2*$Q$5</f>
+      <c r="B10" s="4">
+        <f t="shared" si="6"/>
         <v>1.5254237288135593</v>
       </c>
-      <c r="C10" s="6">
-        <f>C2*$Q$5</f>
+      <c r="C10" s="4">
+        <f t="shared" si="6"/>
         <v>3.0508474576271185</v>
       </c>
-      <c r="D10" s="6">
-        <f>D2*$Q$5</f>
+      <c r="D10" s="4">
+        <f t="shared" si="6"/>
         <v>4.5762711864406782</v>
       </c>
-      <c r="E10" s="6">
-        <f>E2*$Q$5</f>
+      <c r="E10" s="4">
+        <f t="shared" si="6"/>
         <v>6.101694915254237</v>
       </c>
-      <c r="F10" s="6">
-        <f>F2*$Q$5</f>
+      <c r="F10" s="4">
+        <f t="shared" si="6"/>
         <v>7.6271186440677958</v>
       </c>
-      <c r="G10" s="6">
-        <f>G2*$Q$5</f>
+      <c r="G10" s="4">
+        <f t="shared" si="6"/>
         <v>9.1525423728813564</v>
       </c>
-      <c r="H10" s="6">
-        <f>H2*$Q$5</f>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
         <v>10.677966101694915</v>
       </c>
-      <c r="I10" s="6">
-        <f>I2*$Q$5</f>
+      <c r="I10" s="4">
+        <f t="shared" si="6"/>
         <v>12.203389830508474</v>
       </c>
-      <c r="J10" s="6">
-        <f>J2*$Q$5</f>
+      <c r="J10" s="4">
+        <f t="shared" si="6"/>
         <v>13.728813559322033</v>
       </c>
       <c r="Q10" t="s">
@@ -795,131 +795,131 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f>A3*$Q$5</f>
+      <c r="A11" s="4">
+        <f t="shared" ref="A11:J11" si="7">A3*$Q$5</f>
         <v>15.254237288135592</v>
       </c>
-      <c r="B11" s="6">
-        <f>B3*$Q$5</f>
+      <c r="B11" s="4">
+        <f t="shared" si="7"/>
         <v>16.779661016949152</v>
       </c>
-      <c r="C11" s="6">
-        <f>C3*$Q$5</f>
+      <c r="C11" s="4">
+        <f t="shared" si="7"/>
         <v>18.305084745762713</v>
       </c>
-      <c r="D11" s="6">
-        <f>D3*$Q$5</f>
+      <c r="D11" s="4">
+        <f t="shared" si="7"/>
         <v>19.83050847457627</v>
       </c>
-      <c r="E11" s="6">
-        <f>E3*$Q$5</f>
+      <c r="E11" s="4">
+        <f t="shared" si="7"/>
         <v>21.35593220338983</v>
       </c>
-      <c r="F11" s="6">
-        <f>F3*$Q$5</f>
+      <c r="F11" s="4">
+        <f t="shared" si="7"/>
         <v>22.881355932203387</v>
       </c>
-      <c r="G11" s="6">
-        <f>G3*$Q$5</f>
+      <c r="G11" s="4">
+        <f t="shared" si="7"/>
         <v>24.406779661016948</v>
       </c>
-      <c r="H11" s="6">
-        <f>H3*$Q$5</f>
+      <c r="H11" s="4">
+        <f t="shared" si="7"/>
         <v>25.932203389830509</v>
       </c>
-      <c r="I11" s="6">
-        <f>I3*$Q$5</f>
+      <c r="I11" s="4">
+        <f t="shared" si="7"/>
         <v>27.457627118644066</v>
       </c>
-      <c r="J11" s="6">
-        <f>J3*$Q$5</f>
+      <c r="J11" s="4">
+        <f t="shared" si="7"/>
         <v>28.983050847457626</v>
       </c>
-      <c r="Q11" s="3">
-        <v>2</v>
+      <c r="Q11" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f>A4*$Q$5</f>
+      <c r="A12" s="4">
+        <f t="shared" ref="A12:J12" si="8">A4*$Q$5</f>
         <v>30.508474576271183</v>
       </c>
-      <c r="B12" s="6">
-        <f>B4*$Q$5</f>
+      <c r="B12" s="4">
+        <f t="shared" si="8"/>
         <v>32.033898305084747</v>
       </c>
-      <c r="C12" s="6">
-        <f>C4*$Q$5</f>
+      <c r="C12" s="4">
+        <f t="shared" si="8"/>
         <v>33.559322033898304</v>
       </c>
-      <c r="D12" s="6">
-        <f>D4*$Q$5</f>
+      <c r="D12" s="4">
+        <f t="shared" si="8"/>
         <v>35.084745762711862</v>
       </c>
-      <c r="E12" s="6">
-        <f>E4*$Q$5</f>
+      <c r="E12" s="4">
+        <f t="shared" si="8"/>
         <v>36.610169491525426</v>
       </c>
-      <c r="F12" s="6">
-        <f>F4*$Q$5</f>
+      <c r="F12" s="4">
+        <f t="shared" si="8"/>
         <v>38.135593220338983</v>
       </c>
-      <c r="G12" s="6">
-        <f>G4*$Q$5</f>
+      <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>39.66101694915254</v>
       </c>
-      <c r="H12" s="6">
-        <f>H4*$Q$5</f>
+      <c r="H12" s="4">
+        <f t="shared" si="8"/>
         <v>41.186440677966097</v>
       </c>
-      <c r="I12" s="6">
-        <f>I4*$Q$5</f>
+      <c r="I12" s="4">
+        <f t="shared" si="8"/>
         <v>42.711864406779661</v>
       </c>
-      <c r="J12" s="6">
-        <f>J4*$Q$5</f>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
         <v>44.237288135593218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f>A5*$Q$5</f>
+      <c r="A13" s="4">
+        <f t="shared" ref="A13:J13" si="9">A5*$Q$5</f>
         <v>45.762711864406775</v>
       </c>
-      <c r="B13" s="6">
-        <f>B5*$Q$5</f>
+      <c r="B13" s="4">
+        <f t="shared" si="9"/>
         <v>47.288135593220339</v>
       </c>
-      <c r="C13" s="6">
-        <f>C5*$Q$5</f>
+      <c r="C13" s="4">
+        <f t="shared" si="9"/>
         <v>48.813559322033896</v>
       </c>
-      <c r="D13" s="6">
-        <f>D5*$Q$5</f>
+      <c r="D13" s="4">
+        <f t="shared" si="9"/>
         <v>50.338983050847453</v>
       </c>
-      <c r="E13" s="6">
-        <f>E5*$Q$5</f>
+      <c r="E13" s="4">
+        <f t="shared" si="9"/>
         <v>51.864406779661017</v>
       </c>
-      <c r="F13" s="6">
-        <f>F5*$Q$5</f>
+      <c r="F13" s="4">
+        <f t="shared" si="9"/>
         <v>53.389830508474574</v>
       </c>
-      <c r="G13" s="6">
-        <f>G5*$Q$5</f>
+      <c r="G13" s="4">
+        <f t="shared" si="9"/>
         <v>54.915254237288131</v>
       </c>
-      <c r="H13" s="6">
-        <f>H5*$Q$5</f>
+      <c r="H13" s="4">
+        <f t="shared" si="9"/>
         <v>56.440677966101696</v>
       </c>
-      <c r="I13" s="6">
-        <f>I5*$Q$5</f>
+      <c r="I13" s="4">
+        <f t="shared" si="9"/>
         <v>57.966101694915253</v>
       </c>
-      <c r="J13" s="6">
-        <f>J5*$Q$5</f>
+      <c r="J13" s="4">
+        <f t="shared" si="9"/>
         <v>59.49152542372881</v>
       </c>
       <c r="Q13" t="s">
@@ -927,90 +927,90 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f>A6*$Q$5</f>
+      <c r="A14" s="4">
+        <f t="shared" ref="A14:J14" si="10">A6*$Q$5</f>
         <v>61.016949152542367</v>
       </c>
-      <c r="B14" s="6">
-        <f>B6*$Q$5</f>
+      <c r="B14" s="4">
+        <f t="shared" si="10"/>
         <v>62.542372881355931</v>
       </c>
-      <c r="C14" s="6">
-        <f>C6*$Q$5</f>
+      <c r="C14" s="4">
+        <f t="shared" si="10"/>
         <v>64.067796610169495</v>
       </c>
-      <c r="D14" s="6">
-        <f>D6*$Q$5</f>
+      <c r="D14" s="4">
+        <f t="shared" si="10"/>
         <v>65.593220338983045</v>
       </c>
-      <c r="E14" s="6">
-        <f>E6*$Q$5</f>
+      <c r="E14" s="4">
+        <f t="shared" si="10"/>
         <v>67.118644067796609</v>
       </c>
-      <c r="F14" s="6">
-        <f>F6*$Q$5</f>
+      <c r="F14" s="4">
+        <f t="shared" si="10"/>
         <v>68.644067796610173</v>
       </c>
-      <c r="G14" s="6">
-        <f>G6*$Q$5</f>
+      <c r="G14" s="4">
+        <f t="shared" si="10"/>
         <v>70.169491525423723</v>
       </c>
-      <c r="H14" s="6">
-        <f>H6*$Q$5</f>
+      <c r="H14" s="4">
+        <f t="shared" si="10"/>
         <v>71.694915254237287</v>
       </c>
-      <c r="I14" s="6">
-        <f>I6*$Q$5</f>
+      <c r="I14" s="4">
+        <f t="shared" si="10"/>
         <v>73.220338983050851</v>
       </c>
-      <c r="J14" s="6">
-        <f>J6*$Q$5</f>
+      <c r="J14" s="4">
+        <f t="shared" si="10"/>
         <v>74.745762711864401</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <f>Q2-Q8-2*Q11</f>
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f>A7*$Q$5</f>
+      <c r="A15" s="4">
+        <f t="shared" ref="A15:J15" si="11">A7*$Q$5</f>
         <v>76.271186440677965</v>
       </c>
-      <c r="B15" s="6">
-        <f>B7*$Q$5</f>
+      <c r="B15" s="4">
+        <f t="shared" si="11"/>
         <v>77.796610169491515</v>
       </c>
-      <c r="C15" s="6">
-        <f>C7*$Q$5</f>
+      <c r="C15" s="4">
+        <f t="shared" si="11"/>
         <v>79.322033898305079</v>
       </c>
-      <c r="D15" s="6">
-        <f>D7*$Q$5</f>
+      <c r="D15" s="4">
+        <f t="shared" si="11"/>
         <v>80.847457627118644</v>
       </c>
-      <c r="E15" s="6">
-        <f>E7*$Q$5</f>
+      <c r="E15" s="4">
+        <f t="shared" si="11"/>
         <v>82.372881355932194</v>
       </c>
-      <c r="F15" s="6">
-        <f>F7*$Q$5</f>
+      <c r="F15" s="4">
+        <f t="shared" si="11"/>
         <v>83.898305084745758</v>
       </c>
-      <c r="G15" s="6">
-        <f>G7*$Q$5</f>
+      <c r="G15" s="4">
+        <f t="shared" si="11"/>
         <v>85.423728813559322</v>
       </c>
-      <c r="H15" s="6">
-        <f>H7*$Q$5</f>
+      <c r="H15" s="4">
+        <f t="shared" si="11"/>
         <v>86.949152542372872</v>
       </c>
-      <c r="I15" s="6">
-        <f>I7*$Q$5</f>
+      <c r="I15" s="4">
+        <f t="shared" si="11"/>
         <v>88.474576271186436</v>
       </c>
-      <c r="J15" s="6">
-        <f>J7*$Q$5</f>
+      <c r="J15" s="4">
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
     </row>
@@ -1020,273 +1020,273 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="Q17" s="4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="Q17" s="3">
         <f>2*Q11+Q8-1</f>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f t="shared" ref="A18:J18" si="6">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A10)),0)+MIN&amp;","</f>
-        <v>5,</v>
-      </c>
-      <c r="B18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>8,</v>
-      </c>
-      <c r="C18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>12,</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>16,</v>
-      </c>
-      <c r="E18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>20,</v>
-      </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="A18" s="5" t="str">
+        <f t="shared" ref="A18:J18" si="12">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A10)),0)+MIN&amp;","</f>
+        <v>21,</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>24,</v>
       </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>28,</v>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>32,</v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="6"/>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>27,</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>30,</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>33,</v>
+      </c>
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>36,</v>
       </c>
-      <c r="J18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v>40,</v>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>39,</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>42,</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>45,</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>48,</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f t="shared" ref="A19:J19" si="7">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A11)),0)+MIN&amp;","</f>
-        <v>43,</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>47,</v>
-      </c>
-      <c r="C19" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="A19" s="5" t="str">
+        <f t="shared" ref="A19:J19" si="13">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A11)),0)+MIN&amp;","</f>
         <v>51,</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>55,</v>
-      </c>
-      <c r="E19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>58,</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>62,</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="7"/>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>54,</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>57,</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>60,</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>63,</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>66,</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>69,</v>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>73,</v>
-      </c>
-      <c r="J19" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v>76,</v>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>68,</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>71,</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>74,</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>77,</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:J20" si="8">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A12)),0)+MIN&amp;","</f>
-        <v>80,</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>83,</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>86,</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="A20" s="5" t="str">
+        <f t="shared" ref="A20:J20" si="14">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A12)),0)+MIN&amp;","</f>
+        <v>79,</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>82,</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>85,</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>87,</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>90,</v>
       </c>
-      <c r="E20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>93,</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>96,</v>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>92,</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>95,</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>97,</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>99,</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>102,</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>105,</v>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="14"/>
+        <v>101,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="str">
+        <f t="shared" ref="A21:J21" si="15">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A13)),0)+MIN&amp;","</f>
+        <v>104,</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>106,</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>108,</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f t="shared" ref="A21:J21" si="9">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A13)),0)+MIN&amp;","</f>
-        <v>111,</v>
-      </c>
-      <c r="B21" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>113,</v>
-      </c>
-      <c r="C21" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>116,</v>
-      </c>
-      <c r="D21" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>118,</v>
-      </c>
-      <c r="E21" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>121,</v>
-      </c>
-      <c r="F21" s="7" t="str">
-        <f t="shared" si="9"/>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>110,</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>112,</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>114,</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>115,</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>117,</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>119,</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>120,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="str">
+        <f t="shared" ref="A22:J22" si="16">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A14)),0)+MIN&amp;","</f>
+        <v>122,</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>123,</v>
       </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="9"/>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>125,</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>126,</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v>128,</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="9"/>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>127,</v>
+      </c>
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>129,</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>130,</v>
       </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="9"/>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>131,</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="16"/>
         <v>132,</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f t="shared" ref="A22:J22" si="10">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A14)),0)+MIN&amp;","</f>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>132,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="str">
+        <f t="shared" ref="A23:I23" si="17">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A15)),0)+MIN&amp;","</f>
+        <v>133,</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>134,</v>
       </c>
-      <c r="B22" s="7" t="str">
-        <f t="shared" si="10"/>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>134,</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>135,</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>135,</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>136,</v>
       </c>
-      <c r="C22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>138,</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>139,</v>
-      </c>
-      <c r="E22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>141,</v>
-      </c>
-      <c r="F22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>142,</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>144,</v>
-      </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>145,</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>146,</v>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v>147,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f t="shared" ref="A23:I23" si="11">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A15)),0)+MIN&amp;","</f>
-        <v>148,</v>
-      </c>
-      <c r="B23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>149,</v>
-      </c>
-      <c r="C23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>150,</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>151,</v>
-      </c>
-      <c r="E23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>151,</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>152,</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>152,</v>
-      </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>152,</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>152,</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>136,</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>136,</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>136,</v>
+      </c>
+      <c r="J23" s="5">
         <f>ROUNDDOWN((MAX-MIN)*SIN(RADIANS(J15)),0)+MIN</f>
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Firmware/Sine Wave Table.xlsx
+++ b/Firmware/Sine Wave Table.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="MAX">Sheet1!$Q$14</definedName>
@@ -20,9 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Copy and paste table directly</t>
-  </si>
   <si>
     <t>List of angles used</t>
   </si>
@@ -46,6 +42,9 @@
   </si>
   <si>
     <t>Deadband</t>
+  </si>
+  <si>
+    <t>Copy and paste green cells directly</t>
   </si>
 </sst>
 </file>
@@ -111,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -134,7 +136,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -434,7 +458,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="A18:J23"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,20 +474,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -594,7 +618,7 @@
         <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -639,8 +663,8 @@
         <v>39</v>
       </c>
       <c r="Q5" s="2">
-        <f>90/59</f>
-        <v>1.5254237288135593</v>
+        <f>90/9</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -727,7 +751,7 @@
         <v>59</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -736,18 +760,18 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -756,537 +780,537 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="6"/>
-        <v>1.5254237288135593</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="6"/>
-        <v>3.0508474576271185</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="6"/>
-        <v>4.5762711864406782</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="6"/>
-        <v>6.101694915254237</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="6"/>
-        <v>7.6271186440677958</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="6"/>
-        <v>9.1525423728813564</v>
+        <v>60</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="6"/>
-        <v>10.677966101694915</v>
+        <v>70</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="6"/>
-        <v>12.203389830508474</v>
+        <v>80</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="6"/>
-        <v>13.728813559322033</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" ref="A11:J11" si="7">A3*$Q$5</f>
-        <v>15.254237288135592</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="7"/>
-        <v>16.779661016949152</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="7"/>
-        <v>18.305084745762713</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="7"/>
-        <v>19.83050847457627</v>
+        <v>130</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="7"/>
-        <v>21.35593220338983</v>
+        <v>140</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="7"/>
-        <v>22.881355932203387</v>
+        <v>150</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="7"/>
-        <v>24.406779661016948</v>
+        <v>160</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="7"/>
-        <v>25.932203389830509</v>
+        <v>170</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="7"/>
-        <v>27.457627118644066</v>
+        <v>180</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="7"/>
-        <v>28.983050847457626</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" ref="A12:J12" si="8">A4*$Q$5</f>
-        <v>30.508474576271183</v>
+        <v>200</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="8"/>
-        <v>32.033898305084747</v>
+        <v>210</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="8"/>
-        <v>33.559322033898304</v>
+        <v>220</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="8"/>
-        <v>35.084745762711862</v>
+        <v>230</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="8"/>
-        <v>36.610169491525426</v>
+        <v>240</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="8"/>
-        <v>38.135593220338983</v>
+        <v>250</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="8"/>
-        <v>39.66101694915254</v>
+        <v>260</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="8"/>
-        <v>41.186440677966097</v>
+        <v>270</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="8"/>
-        <v>42.711864406779661</v>
+        <v>280</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="8"/>
-        <v>44.237288135593218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" ref="A13:J13" si="9">A5*$Q$5</f>
-        <v>45.762711864406775</v>
+        <v>300</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="9"/>
-        <v>47.288135593220339</v>
+        <v>310</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="9"/>
-        <v>48.813559322033896</v>
+        <v>320</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="9"/>
-        <v>50.338983050847453</v>
+        <v>330</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="9"/>
-        <v>51.864406779661017</v>
+        <v>340</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="9"/>
-        <v>53.389830508474574</v>
+        <v>350</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="9"/>
-        <v>54.915254237288131</v>
+        <v>360</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="9"/>
-        <v>56.440677966101696</v>
+        <v>370</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="9"/>
-        <v>57.966101694915253</v>
+        <v>380</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="9"/>
-        <v>59.49152542372881</v>
+        <v>390</v>
       </c>
       <c r="Q13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" ref="A14:J14" si="10">A6*$Q$5</f>
-        <v>61.016949152542367</v>
+        <v>400</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="10"/>
-        <v>62.542372881355931</v>
+        <v>410</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="10"/>
-        <v>64.067796610169495</v>
+        <v>420</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="10"/>
-        <v>65.593220338983045</v>
+        <v>430</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="10"/>
-        <v>67.118644067796609</v>
+        <v>440</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="10"/>
-        <v>68.644067796610173</v>
+        <v>450</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="10"/>
-        <v>70.169491525423723</v>
+        <v>460</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="10"/>
-        <v>71.694915254237287</v>
+        <v>470</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="10"/>
-        <v>73.220338983050851</v>
+        <v>480</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="10"/>
-        <v>74.745762711864401</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="3">
         <f>Q2-Q8-2*Q11</f>
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" ref="A15:J15" si="11">A7*$Q$5</f>
-        <v>76.271186440677965</v>
+        <v>500</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="11"/>
-        <v>77.796610169491515</v>
+        <v>510</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="11"/>
-        <v>79.322033898305079</v>
+        <v>520</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="11"/>
-        <v>80.847457627118644</v>
+        <v>530</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="11"/>
-        <v>82.372881355932194</v>
+        <v>540</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="11"/>
-        <v>83.898305084745758</v>
+        <v>550</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="11"/>
-        <v>85.423728813559322</v>
+        <v>560</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="11"/>
-        <v>86.949152542372872</v>
+        <v>570</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="11"/>
-        <v>88.474576271186436</v>
+        <v>580</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="Q17" s="3">
         <f>2*Q11+Q8-1</f>
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" ref="A18:J18" si="12">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A10)),0)+MIN&amp;","</f>
-        <v>21,</v>
+        <v>5,</v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>24,</v>
+        <v>30,</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>27,</v>
+        <v>55,</v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>30,</v>
+        <v>79,</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>33,</v>
+        <v>100,</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>36,</v>
+        <v>118,</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>39,</v>
+        <v>133,</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>42,</v>
+        <v>144,</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>45,</v>
+        <v>150,</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>48,</v>
+        <v>153,</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" ref="A19:J19" si="13">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A11)),0)+MIN&amp;","</f>
-        <v>51,</v>
+        <v>150,</v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>54,</v>
+        <v>144,</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>57,</v>
+        <v>133,</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>60,</v>
+        <v>118,</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>63,</v>
+        <v>100,</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>66,</v>
+        <v>79,</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>68,</v>
+        <v>55,</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>71,</v>
+        <v>30,</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>74,</v>
+        <v>5,</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>77,</v>
+        <v>-20,</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" ref="A20:J20" si="14">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A12)),0)+MIN&amp;","</f>
-        <v>79,</v>
+        <v>-45,</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>82,</v>
+        <v>-69,</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>85,</v>
+        <v>-90,</v>
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>87,</v>
+        <v>-108,</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>90,</v>
+        <v>-123,</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>92,</v>
+        <v>-134,</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>95,</v>
+        <v>-140,</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>97,</v>
+        <v>-143,</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>99,</v>
+        <v>-140,</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>101,</v>
+        <v>-134,</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f t="shared" ref="A21:J21" si="15">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A13)),0)+MIN&amp;","</f>
-        <v>104,</v>
+        <v>-123,</v>
       </c>
       <c r="B21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>106,</v>
+        <v>-108,</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>108,</v>
+        <v>-90,</v>
       </c>
       <c r="D21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>110,</v>
+        <v>-69,</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>112,</v>
+        <v>-45,</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>114,</v>
+        <v>-20,</v>
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>115,</v>
+        <v>5,</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>117,</v>
+        <v>30,</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>119,</v>
+        <v>55,</v>
       </c>
       <c r="J21" s="5" t="str">
         <f t="shared" si="15"/>
-        <v>120,</v>
+        <v>79,</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
-        <f t="shared" ref="A22:J22" si="16">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A14)),0)+MIN&amp;","</f>
-        <v>122,</v>
+        <f t="shared" ref="A22:J23" si="16">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A14)),0)+MIN&amp;","</f>
+        <v>100,</v>
       </c>
       <c r="B22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>123,</v>
+        <v>118,</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>125,</v>
+        <v>133,</v>
       </c>
       <c r="D22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>126,</v>
+        <v>144,</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>127,</v>
+        <v>150,</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>129,</v>
+        <v>153,</v>
       </c>
       <c r="G22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>130,</v>
+        <v>150,</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>131,</v>
+        <v>144,</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>132,</v>
+        <v>133,</v>
       </c>
       <c r="J22" s="5" t="str">
         <f t="shared" si="16"/>
-        <v>132,</v>
+        <v>118,</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f t="shared" ref="A23:I23" si="17">ROUNDDOWN((MAX-MIN)*SIN(RADIANS(A15)),0)+MIN&amp;","</f>
-        <v>133,</v>
+        <v>100,</v>
       </c>
       <c r="B23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>134,</v>
+        <v>79,</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>134,</v>
+        <v>55,</v>
       </c>
       <c r="D23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>135,</v>
+        <v>30,</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>135,</v>
+        <v>5,</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>136,</v>
+        <v>-20,</v>
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>136,</v>
+        <v>-45,</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>136,</v>
+        <v>-68,</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="17"/>
-        <v>136,</v>
-      </c>
-      <c r="J23" s="5">
-        <f>ROUNDDOWN((MAX-MIN)*SIN(RADIANS(J15)),0)+MIN</f>
-        <v>137</v>
+        <v>-90,</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>-108,</v>
       </c>
     </row>
   </sheetData>
@@ -1295,382 +1319,12 @@
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A18:J23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>A10&lt;=90</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>90/59*(ROW()-1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f t="shared" ref="A2:A60" si="0">90/59*(ROW()-1)</f>
-        <v>1.5254237288135593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>3.0508474576271185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>4.5762711864406782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>6.101694915254237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>7.6271186440677958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>9.1525423728813564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>10.677966101694915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>12.203389830508474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>13.728813559322033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>15.254237288135592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>16.779661016949152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>18.305084745762713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>19.83050847457627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>21.35593220338983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>22.881355932203387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>24.406779661016948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>25.932203389830509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>27.457627118644066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>28.983050847457626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>30.508474576271183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>32.033898305084747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>33.559322033898304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>35.084745762711862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>36.610169491525426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>38.135593220338983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>39.66101694915254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>41.186440677966097</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>42.711864406779661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>44.237288135593218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>45.762711864406775</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>47.288135593220339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>48.813559322033896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>50.338983050847453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>51.864406779661017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>53.389830508474574</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>54.915254237288131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>56.440677966101696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>57.966101694915253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>59.49152542372881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>61.016949152542367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>62.542372881355931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>64.067796610169495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>65.593220338983045</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>67.118644067796609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>68.644067796610173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>70.169491525423723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>71.694915254237287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>73.220338983050851</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>74.745762711864401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>76.271186440677965</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>77.796610169491515</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>79.322033898305079</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>80.847457627118644</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>82.372881355932194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>83.898305084745758</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>85.423728813559322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>86.949152542372872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>88.474576271186436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>